--- a/run.xlsx
+++ b/run.xlsx
@@ -14,207 +14,210 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Rune Age</t>
   </si>
   <si>
-    <t>12996</t>
+    <t>9999</t>
   </si>
   <si>
     <t>Rune Cha</t>
   </si>
   <si>
-    <t>8099</t>
+    <t>9000</t>
   </si>
   <si>
     <t>Rune Fo</t>
   </si>
   <si>
-    <t>12994</t>
+    <t>3681</t>
   </si>
   <si>
     <t>Rune Ine</t>
   </si>
   <si>
-    <t>9095</t>
+    <t>5900</t>
   </si>
   <si>
     <t>Rune Pod</t>
   </si>
   <si>
-    <t>8000</t>
+    <t>14850</t>
   </si>
   <si>
     <t>Rune Vi</t>
   </si>
   <si>
-    <t>22663</t>
+    <t>16997</t>
   </si>
   <si>
     <t>Rune Sa</t>
   </si>
   <si>
-    <t>15998</t>
+    <t>11000</t>
   </si>
   <si>
     <t>Rune Pui</t>
   </si>
   <si>
-    <t>47099</t>
+    <t>28000</t>
   </si>
   <si>
     <t>Rune So</t>
   </si>
   <si>
-    <t>89998</t>
+    <t>38983</t>
   </si>
   <si>
     <t>Rune Do Air</t>
   </si>
   <si>
-    <t>115997</t>
+    <t>99995</t>
   </si>
   <si>
     <t>Rune Do Eau</t>
   </si>
   <si>
-    <t>97997</t>
+    <t>120990</t>
   </si>
   <si>
     <t>Rune Do Feu</t>
   </si>
   <si>
-    <t>69995</t>
+    <t>111759</t>
   </si>
   <si>
     <t>Rune Do Terre</t>
   </si>
   <si>
-    <t>141990</t>
+    <t>76608</t>
   </si>
   <si>
     <t>Rune Pa Age</t>
   </si>
   <si>
-    <t>39930</t>
+    <t>35454</t>
   </si>
   <si>
     <t>Rune Pa Cha</t>
   </si>
   <si>
-    <t>29683</t>
+    <t>27989</t>
   </si>
   <si>
     <t>Rune Pa Fo</t>
   </si>
   <si>
-    <t>39889</t>
+    <t>12489</t>
   </si>
   <si>
     <t>Rune Pa Ine</t>
   </si>
   <si>
-    <t>29000</t>
+    <t>25436</t>
   </si>
   <si>
     <t>Rune Pa Pod</t>
   </si>
   <si>
-    <t>33880</t>
+    <t>58999</t>
   </si>
   <si>
     <t>Rune Pa Vi</t>
   </si>
   <si>
-    <t>70998</t>
+    <t>53925</t>
   </si>
   <si>
     <t>Rune Pa Sa</t>
   </si>
   <si>
-    <t>50499</t>
+    <t>38785</t>
   </si>
   <si>
     <t>Rune Pa Pui</t>
   </si>
   <si>
-    <t>146499</t>
+    <t>92089</t>
   </si>
   <si>
     <t>Rune Pa So</t>
   </si>
   <si>
-    <t>319988</t>
+    <t>129899</t>
   </si>
   <si>
     <t>Rune Pa Do Air</t>
   </si>
   <si>
-    <t>240000</t>
+    <t>336813</t>
   </si>
   <si>
     <t>Rune Pa Do Eau</t>
   </si>
   <si>
-    <t>379988</t>
+    <t>419973</t>
   </si>
   <si>
     <t>Rune Pa Do Feu</t>
   </si>
   <si>
-    <t>115000</t>
+    <t>238993</t>
   </si>
   <si>
     <t>Rune Pa Do Terre</t>
   </si>
   <si>
-    <t>319000</t>
+    <t>228999</t>
   </si>
   <si>
     <t>Rune Ra Age</t>
   </si>
   <si>
-    <t>99000</t>
+    <t>110798</t>
   </si>
   <si>
     <t>Rune Ra Cha</t>
   </si>
   <si>
-    <t>40000</t>
+    <t>94645</t>
   </si>
   <si>
     <t>Rune Ra Fo</t>
   </si>
   <si>
+    <t>37354</t>
+  </si>
+  <si>
     <t>Rune Ra Ine</t>
   </si>
   <si>
-    <t>57665</t>
+    <t>77982</t>
   </si>
   <si>
     <t>Rune Ra Pod</t>
   </si>
   <si>
-    <t>159949</t>
+    <t>148680</t>
   </si>
   <si>
     <t>Rune Ra Vi</t>
   </si>
   <si>
-    <t>169999</t>
+    <t>169159</t>
   </si>
   <si>
     <t>Rune Ra Sa</t>
   </si>
   <si>
-    <t>88000</t>
+    <t>98967</t>
   </si>
   <si>
     <t>Rune Ra Pui</t>
   </si>
   <si>
-    <t>449997</t>
+    <t>200000</t>
   </si>
 </sst>
 </file>
@@ -273,8 +276,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -292,7 +295,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="0"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -311,8 +314,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -330,7 +333,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="1581150"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -349,8 +352,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -368,7 +371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="3162300"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -387,8 +390,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -406,7 +409,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="4743450"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -425,8 +428,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -444,7 +447,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="6324600"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -463,8 +466,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -482,7 +485,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="7905750"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -501,8 +504,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -520,7 +523,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="9486900"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -539,8 +542,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -558,7 +561,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="11068050"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -577,8 +580,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -596,7 +599,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="12649200"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -615,8 +618,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -634,7 +637,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="14230350"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -653,8 +656,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -672,7 +675,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="15811500"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -691,8 +694,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -710,7 +713,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="17392650"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -729,8 +732,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -748,7 +751,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="18973800"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -767,8 +770,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -786,7 +789,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="20554950"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -805,8 +808,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -824,7 +827,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="22136100"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -843,8 +846,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -862,7 +865,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="23717250"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -881,8 +884,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -900,7 +903,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="25298400"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -919,8 +922,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -938,7 +941,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="26879550"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -957,8 +960,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -976,7 +979,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="28460700"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -995,8 +998,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1014,7 +1017,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="30041850"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1033,8 +1036,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1052,7 +1055,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="31623000"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1071,8 +1074,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1090,7 +1093,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="33204150"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1109,8 +1112,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1128,7 +1131,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="34785300"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1147,8 +1150,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1166,7 +1169,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="36366450"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1185,8 +1188,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1204,7 +1207,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="37947600"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1223,8 +1226,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1242,7 +1245,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="39528750"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1261,8 +1264,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1280,7 +1283,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="41109900"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1299,8 +1302,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1318,7 +1321,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="42691050"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1337,8 +1340,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1356,7 +1359,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="44272200"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1375,8 +1378,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1394,7 +1397,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="45853350"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1413,8 +1416,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1432,7 +1435,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="47434500"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1451,8 +1454,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1470,7 +1473,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="49015650"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1489,8 +1492,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1508,7 +1511,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="50596800"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1527,8 +1530,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1546,7 +1549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="52177950"/>
-          <a:ext cx="4876800" cy="1390650"/>
+          <a:ext cx="4876800" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2142,57 +2145,57 @@
     </row>
     <row r="58" spans="1:2">
       <c r="B58" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="110" customHeight="1">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="B60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="110" customHeight="1">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="B62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="110" customHeight="1">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="B64" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="110" customHeight="1">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="B66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="110" customHeight="1">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="B68" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/run.xlsx
+++ b/run.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,161 +9,161 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Rune Age</t>
   </si>
   <si>
-    <t>9999</t>
+    <t>11196</t>
   </si>
   <si>
     <t>Rune Cha</t>
   </si>
   <si>
-    <t>9000</t>
+    <t>9893</t>
   </si>
   <si>
     <t>Rune Fo</t>
   </si>
   <si>
-    <t>3681</t>
+    <t>3770</t>
   </si>
   <si>
     <t>Rune Ine</t>
   </si>
   <si>
-    <t>5900</t>
+    <t>7493</t>
   </si>
   <si>
     <t>Rune Pod</t>
   </si>
   <si>
-    <t>14850</t>
+    <t>14993</t>
   </si>
   <si>
     <t>Rune Vi</t>
   </si>
   <si>
-    <t>16997</t>
+    <t>17977</t>
   </si>
   <si>
     <t>Rune Sa</t>
   </si>
   <si>
-    <t>11000</t>
+    <t>11991</t>
   </si>
   <si>
     <t>Rune Pui</t>
   </si>
   <si>
-    <t>28000</t>
+    <t>27597</t>
   </si>
   <si>
     <t>Rune So</t>
   </si>
   <si>
-    <t>38983</t>
+    <t>37996</t>
   </si>
   <si>
     <t>Rune Do Air</t>
   </si>
   <si>
-    <t>99995</t>
+    <t>99996</t>
   </si>
   <si>
     <t>Rune Do Eau</t>
   </si>
   <si>
-    <t>120990</t>
+    <t>129757</t>
   </si>
   <si>
     <t>Rune Do Feu</t>
   </si>
   <si>
-    <t>111759</t>
+    <t>92571</t>
   </si>
   <si>
     <t>Rune Do Terre</t>
   </si>
   <si>
-    <t>76608</t>
+    <t>76654</t>
   </si>
   <si>
     <t>Rune Pa Age</t>
   </si>
   <si>
-    <t>35454</t>
+    <t>39980</t>
   </si>
   <si>
     <t>Rune Pa Cha</t>
   </si>
   <si>
-    <t>27989</t>
+    <t>28761</t>
   </si>
   <si>
     <t>Rune Pa Fo</t>
   </si>
   <si>
-    <t>12489</t>
+    <t>12595</t>
   </si>
   <si>
     <t>Rune Pa Ine</t>
   </si>
   <si>
-    <t>25436</t>
+    <t>25299</t>
   </si>
   <si>
     <t>Rune Pa Pod</t>
   </si>
   <si>
-    <t>58999</t>
+    <t>56437</t>
   </si>
   <si>
     <t>Rune Pa Vi</t>
   </si>
   <si>
-    <t>53925</t>
+    <t>54453</t>
   </si>
   <si>
     <t>Rune Pa Sa</t>
   </si>
   <si>
-    <t>38785</t>
+    <t>38897</t>
   </si>
   <si>
     <t>Rune Pa Pui</t>
   </si>
   <si>
-    <t>92089</t>
+    <t>92985</t>
   </si>
   <si>
     <t>Rune Pa So</t>
   </si>
   <si>
-    <t>129899</t>
+    <t>129788</t>
   </si>
   <si>
     <t>Rune Pa Do Air</t>
   </si>
   <si>
-    <t>336813</t>
+    <t>335997</t>
   </si>
   <si>
     <t>Rune Pa Do Eau</t>
   </si>
   <si>
-    <t>419973</t>
+    <t>399982</t>
   </si>
   <si>
     <t>Rune Pa Do Feu</t>
   </si>
   <si>
-    <t>238993</t>
+    <t>338973</t>
   </si>
   <si>
     <t>Rune Pa Do Terre</t>
@@ -175,56 +175,53 @@
     <t>Rune Ra Age</t>
   </si>
   <si>
-    <t>110798</t>
+    <t>110797</t>
   </si>
   <si>
     <t>Rune Ra Cha</t>
   </si>
   <si>
-    <t>94645</t>
-  </si>
-  <si>
     <t>Rune Ra Fo</t>
   </si>
   <si>
-    <t>37354</t>
+    <t>37333</t>
   </si>
   <si>
     <t>Rune Ra Ine</t>
   </si>
   <si>
-    <t>77982</t>
+    <t>77788</t>
   </si>
   <si>
     <t>Rune Ra Pod</t>
   </si>
   <si>
-    <t>148680</t>
+    <t>147880</t>
   </si>
   <si>
     <t>Rune Ra Vi</t>
   </si>
   <si>
-    <t>169159</t>
+    <t>156996</t>
   </si>
   <si>
     <t>Rune Ra Sa</t>
   </si>
   <si>
-    <t>98967</t>
+    <t>97495</t>
   </si>
   <si>
     <t>Rune Ra Pui</t>
   </si>
   <si>
-    <t>200000</t>
+    <t>210998</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +258,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1562,7 +1564,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1636,6 +1638,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1670,6 +1673,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1845,357 +1849,358 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="110" customHeight="1">
+    <row r="1" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="110" customHeight="1">
+    <row r="3" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="110" customHeight="1">
+    <row r="5" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="110" customHeight="1">
+    <row r="7" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="110" customHeight="1">
+    <row r="9" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="110" customHeight="1">
+    <row r="11" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="110" customHeight="1">
+    <row r="13" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="110" customHeight="1">
+    <row r="15" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="110" customHeight="1">
+    <row r="17" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="110" customHeight="1">
+    <row r="19" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="110" customHeight="1">
+    <row r="21" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="110" customHeight="1">
+    <row r="23" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="110" customHeight="1">
+    <row r="25" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="110" customHeight="1">
+    <row r="27" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="110" customHeight="1">
+    <row r="29" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="110" customHeight="1">
+    <row r="31" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="110" customHeight="1">
+    <row r="33" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="110" customHeight="1">
+    <row r="35" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="110" customHeight="1">
+    <row r="37" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="110" customHeight="1">
+    <row r="39" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="110" customHeight="1">
+    <row r="41" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="110" customHeight="1">
+    <row r="43" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="110" customHeight="1">
+    <row r="45" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="110" customHeight="1">
+    <row r="47" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="110" customHeight="1">
+    <row r="49" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="110" customHeight="1">
+    <row r="51" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="110" customHeight="1">
+    <row r="53" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="110" customHeight="1">
+    <row r="55" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="B56" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="110" customHeight="1">
-      <c r="A57" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="B58" t="s">
+    <row r="59" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="110" customHeight="1">
-      <c r="A59" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="B60" t="s">
+    <row r="61" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="110" customHeight="1">
-      <c r="A61" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="B62" t="s">
+    <row r="63" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="110" customHeight="1">
-      <c r="A63" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="B64" t="s">
+    <row r="65" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="110" customHeight="1">
-      <c r="A65" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="B66" t="s">
+    <row r="67" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="110" customHeight="1">
-      <c r="A67" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="B68" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/run.xlsx
+++ b/run.xlsx
@@ -19,43 +19,43 @@
     <t>Rune Age</t>
   </si>
   <si>
-    <t>9999</t>
+    <t>11494</t>
   </si>
   <si>
     <t>Rune Cha</t>
   </si>
   <si>
-    <t>9000</t>
+    <t>9788</t>
   </si>
   <si>
     <t>Rune Fo</t>
   </si>
   <si>
-    <t>3681</t>
+    <t>3498</t>
   </si>
   <si>
     <t>Rune Ine</t>
   </si>
   <si>
-    <t>5900</t>
+    <t>7484</t>
   </si>
   <si>
     <t>Rune Pod</t>
   </si>
   <si>
-    <t>14850</t>
+    <t>9996</t>
   </si>
   <si>
     <t>Rune Vi</t>
   </si>
   <si>
-    <t>16997</t>
+    <t>16972</t>
   </si>
   <si>
     <t>Rune Sa</t>
   </si>
   <si>
-    <t>11000</t>
+    <t>10985</t>
   </si>
   <si>
     <t>Rune Pui</t>
@@ -67,103 +67,103 @@
     <t>Rune So</t>
   </si>
   <si>
-    <t>38983</t>
+    <t>37996</t>
   </si>
   <si>
     <t>Rune Do Air</t>
   </si>
   <si>
-    <t>99995</t>
+    <t>100694</t>
   </si>
   <si>
     <t>Rune Do Eau</t>
   </si>
   <si>
-    <t>120990</t>
+    <t>129742</t>
   </si>
   <si>
     <t>Rune Do Feu</t>
   </si>
   <si>
-    <t>111759</t>
+    <t>92563</t>
   </si>
   <si>
     <t>Rune Do Terre</t>
   </si>
   <si>
-    <t>76608</t>
+    <t>76649</t>
   </si>
   <si>
     <t>Rune Pa Age</t>
   </si>
   <si>
-    <t>35454</t>
+    <t>39973</t>
   </si>
   <si>
     <t>Rune Pa Cha</t>
   </si>
   <si>
-    <t>27989</t>
+    <t>24998</t>
   </si>
   <si>
     <t>Rune Pa Fo</t>
   </si>
   <si>
-    <t>12489</t>
+    <t>12586</t>
   </si>
   <si>
     <t>Rune Pa Ine</t>
   </si>
   <si>
-    <t>25436</t>
+    <t>25382</t>
   </si>
   <si>
     <t>Rune Pa Pod</t>
   </si>
   <si>
-    <t>58999</t>
+    <t>56431</t>
   </si>
   <si>
     <t>Rune Pa Vi</t>
   </si>
   <si>
-    <t>53925</t>
+    <t>62465</t>
   </si>
   <si>
     <t>Rune Pa Sa</t>
   </si>
   <si>
-    <t>38785</t>
+    <t>38997</t>
   </si>
   <si>
     <t>Rune Pa Pui</t>
   </si>
   <si>
-    <t>92089</t>
+    <t>92985</t>
   </si>
   <si>
     <t>Rune Pa So</t>
   </si>
   <si>
-    <t>129899</t>
+    <t>129788</t>
   </si>
   <si>
     <t>Rune Pa Do Air</t>
   </si>
   <si>
-    <t>336813</t>
+    <t>335995</t>
   </si>
   <si>
     <t>Rune Pa Do Eau</t>
   </si>
   <si>
-    <t>419973</t>
+    <t>399989</t>
   </si>
   <si>
     <t>Rune Pa Do Feu</t>
   </si>
   <si>
-    <t>238993</t>
+    <t>338965</t>
   </si>
   <si>
     <t>Rune Pa Do Terre</t>
@@ -175,49 +175,49 @@
     <t>Rune Ra Age</t>
   </si>
   <si>
-    <t>110798</t>
+    <t>110894</t>
   </si>
   <si>
     <t>Rune Ra Cha</t>
   </si>
   <si>
-    <t>94645</t>
+    <t>100000</t>
   </si>
   <si>
     <t>Rune Ra Fo</t>
   </si>
   <si>
-    <t>37354</t>
+    <t>37300</t>
   </si>
   <si>
     <t>Rune Ra Ine</t>
   </si>
   <si>
-    <t>77982</t>
+    <t>77800</t>
   </si>
   <si>
     <t>Rune Ra Pod</t>
   </si>
   <si>
-    <t>148680</t>
+    <t>147878</t>
   </si>
   <si>
     <t>Rune Ra Vi</t>
   </si>
   <si>
-    <t>169159</t>
+    <t>156998</t>
   </si>
   <si>
     <t>Rune Ra Sa</t>
   </si>
   <si>
-    <t>98967</t>
+    <t>97497</t>
   </si>
   <si>
     <t>Rune Ra Pui</t>
   </si>
   <si>
-    <t>200000</t>
+    <t>210998</t>
   </si>
 </sst>
 </file>

--- a/run.xlsx
+++ b/run.xlsx
@@ -14,120 +14,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>Rune Age</t>
   </si>
   <si>
-    <t>11494</t>
+    <t>16998</t>
   </si>
   <si>
     <t>Rune Cha</t>
   </si>
   <si>
-    <t>9788</t>
+    <t>9686</t>
   </si>
   <si>
     <t>Rune Fo</t>
   </si>
   <si>
-    <t>3498</t>
+    <t>3979</t>
   </si>
   <si>
     <t>Rune Ine</t>
   </si>
   <si>
-    <t>7484</t>
+    <t>7533</t>
   </si>
   <si>
     <t>Rune Pod</t>
   </si>
   <si>
-    <t>9996</t>
+    <t>15491</t>
   </si>
   <si>
     <t>Rune Vi</t>
   </si>
   <si>
-    <t>16972</t>
+    <t>19859</t>
   </si>
   <si>
     <t>Rune Sa</t>
   </si>
   <si>
-    <t>10985</t>
+    <t>13394</t>
   </si>
   <si>
     <t>Rune Pui</t>
   </si>
   <si>
-    <t>28000</t>
+    <t>27890</t>
   </si>
   <si>
     <t>Rune So</t>
   </si>
   <si>
-    <t>37996</t>
+    <t>37592</t>
   </si>
   <si>
     <t>Rune Do Air</t>
   </si>
   <si>
-    <t>100694</t>
+    <t>100599</t>
   </si>
   <si>
     <t>Rune Do Eau</t>
   </si>
   <si>
-    <t>129742</t>
+    <t>108800</t>
   </si>
   <si>
     <t>Rune Do Feu</t>
   </si>
   <si>
-    <t>92563</t>
+    <t>92296</t>
   </si>
   <si>
     <t>Rune Do Terre</t>
   </si>
   <si>
-    <t>76649</t>
+    <t>68997</t>
   </si>
   <si>
     <t>Rune Pa Age</t>
   </si>
   <si>
-    <t>39973</t>
+    <t>36994</t>
   </si>
   <si>
     <t>Rune Pa Cha</t>
   </si>
   <si>
-    <t>24998</t>
+    <t>31995</t>
   </si>
   <si>
     <t>Rune Pa Fo</t>
   </si>
   <si>
-    <t>12586</t>
+    <t>12579</t>
   </si>
   <si>
     <t>Rune Pa Ine</t>
   </si>
   <si>
-    <t>25382</t>
+    <t>24997</t>
   </si>
   <si>
     <t>Rune Pa Pod</t>
   </si>
   <si>
-    <t>56431</t>
+    <t>56400</t>
   </si>
   <si>
     <t>Rune Pa Vi</t>
   </si>
   <si>
-    <t>62465</t>
+    <t>58986</t>
   </si>
   <si>
     <t>Rune Pa Sa</t>
@@ -139,85 +139,86 @@
     <t>Rune Pa Pui</t>
   </si>
   <si>
-    <t>92985</t>
+    <t>92882</t>
   </si>
   <si>
     <t>Rune Pa So</t>
   </si>
   <si>
-    <t>129788</t>
+    <t>129600</t>
   </si>
   <si>
     <t>Rune Pa Do Air</t>
   </si>
   <si>
-    <t>335995</t>
+    <t>335800</t>
   </si>
   <si>
     <t>Rune Pa Do Eau</t>
   </si>
   <si>
-    <t>399989</t>
+    <t>389886</t>
   </si>
   <si>
     <t>Rune Pa Do Feu</t>
   </si>
   <si>
-    <t>338965</t>
+    <t>319792</t>
   </si>
   <si>
     <t>Rune Pa Do Terre</t>
   </si>
   <si>
-    <t>228999</t>
+    <t>228995</t>
   </si>
   <si>
     <t>Rune Ra Age</t>
   </si>
   <si>
-    <t>110894</t>
+    <t>119996</t>
   </si>
   <si>
     <t>Rune Ra Cha</t>
   </si>
   <si>
-    <t>100000</t>
+    <t>I'll'-I".I.
+I‘_
+__},.41:
+._9
+J‘,'A..'.:".Ei-I</t>
   </si>
   <si>
     <t>Rune Ra Fo</t>
   </si>
   <si>
-    <t>37300</t>
+    <t>37365</t>
   </si>
   <si>
     <t>Rune Ra Ine</t>
   </si>
   <si>
-    <t>77800</t>
+    <t>76499</t>
   </si>
   <si>
     <t>Rune Ra Pod</t>
   </si>
   <si>
-    <t>147878</t>
+    <t>147800</t>
   </si>
   <si>
     <t>Rune Ra Vi</t>
   </si>
   <si>
-    <t>156998</t>
+    <t>168997</t>
   </si>
   <si>
     <t>Rune Ra Sa</t>
   </si>
   <si>
-    <t>97497</t>
+    <t>98948</t>
   </si>
   <si>
     <t>Rune Ra Pui</t>
-  </si>
-  <si>
-    <t>210998</t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1542,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2195,7 +2196,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="B68" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/run.xlsx
+++ b/run.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,35 +9,35 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Rune Age</t>
   </si>
   <si>
-    <t>16998</t>
+    <t>16251</t>
   </si>
   <si>
     <t>Rune Cha</t>
   </si>
   <si>
-    <t>9686</t>
+    <t>9978</t>
   </si>
   <si>
     <t>Rune Fo</t>
   </si>
   <si>
-    <t>3979</t>
+    <t>3977</t>
   </si>
   <si>
     <t>Rune Ine</t>
   </si>
   <si>
-    <t>7533</t>
+    <t>8381</t>
   </si>
   <si>
     <t>Rune Pod</t>
@@ -49,173 +49,166 @@
     <t>Rune Vi</t>
   </si>
   <si>
-    <t>19859</t>
+    <t>18247</t>
   </si>
   <si>
     <t>Rune Sa</t>
   </si>
   <si>
-    <t>13394</t>
+    <t>11494</t>
   </si>
   <si>
     <t>Rune Pui</t>
   </si>
   <si>
-    <t>27890</t>
+    <t>27998</t>
   </si>
   <si>
     <t>Rune So</t>
   </si>
   <si>
-    <t>37592</t>
+    <t>37485</t>
   </si>
   <si>
     <t>Rune Do Air</t>
   </si>
   <si>
-    <t>100599</t>
+    <t>100764</t>
   </si>
   <si>
     <t>Rune Do Eau</t>
   </si>
   <si>
-    <t>108800</t>
-  </si>
-  <si>
     <t>Rune Do Feu</t>
   </si>
   <si>
-    <t>92296</t>
+    <t>92180</t>
   </si>
   <si>
     <t>Rune Do Terre</t>
   </si>
   <si>
-    <t>68997</t>
+    <t>76390</t>
   </si>
   <si>
     <t>Rune Pa Age</t>
   </si>
   <si>
-    <t>36994</t>
+    <t>36685</t>
   </si>
   <si>
     <t>Rune Pa Cha</t>
   </si>
   <si>
-    <t>31995</t>
+    <t>31663</t>
   </si>
   <si>
     <t>Rune Pa Fo</t>
   </si>
   <si>
-    <t>12579</t>
+    <t>12496</t>
   </si>
   <si>
     <t>Rune Pa Ine</t>
   </si>
   <si>
-    <t>24997</t>
+    <t>24896</t>
   </si>
   <si>
     <t>Rune Pa Pod</t>
   </si>
   <si>
-    <t>56400</t>
+    <t>56285</t>
   </si>
   <si>
     <t>Rune Pa Vi</t>
   </si>
   <si>
-    <t>58986</t>
+    <t>58250</t>
   </si>
   <si>
     <t>Rune Pa Sa</t>
   </si>
   <si>
-    <t>38997</t>
+    <t>38898</t>
   </si>
   <si>
     <t>Rune Pa Pui</t>
   </si>
   <si>
-    <t>92882</t>
+    <t>92989</t>
   </si>
   <si>
     <t>Rune Pa So</t>
   </si>
   <si>
-    <t>129600</t>
+    <t>119179</t>
   </si>
   <si>
     <t>Rune Pa Do Air</t>
   </si>
   <si>
-    <t>335800</t>
+    <t>329898</t>
   </si>
   <si>
     <t>Rune Pa Do Eau</t>
   </si>
   <si>
-    <t>389886</t>
+    <t>376996</t>
   </si>
   <si>
     <t>Rune Pa Do Feu</t>
   </si>
   <si>
-    <t>319792</t>
+    <t>319437</t>
   </si>
   <si>
     <t>Rune Pa Do Terre</t>
   </si>
   <si>
-    <t>228995</t>
+    <t>224999</t>
   </si>
   <si>
     <t>Rune Ra Age</t>
   </si>
   <si>
-    <t>119996</t>
+    <t>119991</t>
   </si>
   <si>
     <t>Rune Ra Cha</t>
   </si>
   <si>
-    <t>I'll'-I".I.
-I‘_
-__},.41:
-._9
-J‘,'A..'.:".Ei-I</t>
+    <t>100996</t>
   </si>
   <si>
     <t>Rune Ra Fo</t>
   </si>
   <si>
-    <t>37365</t>
+    <t>36999</t>
   </si>
   <si>
     <t>Rune Ra Ine</t>
   </si>
   <si>
-    <t>76499</t>
+    <t>76900</t>
   </si>
   <si>
     <t>Rune Ra Pod</t>
   </si>
   <si>
-    <t>147800</t>
+    <t>147699</t>
   </si>
   <si>
     <t>Rune Ra Vi</t>
   </si>
   <si>
-    <t>168997</t>
+    <t>173300</t>
   </si>
   <si>
     <t>Rune Ra Sa</t>
   </si>
   <si>
-    <t>98948</t>
+    <t>98971</t>
   </si>
   <si>
     <t>Rune Ra Pui</t>
@@ -224,8 +217,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +255,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1542,7 +1540,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1563,7 +1561,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1637,6 +1635,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1671,6 +1670,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1846,357 +1846,358 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B61" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="110" customHeight="1">
+    <row r="1" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="110" customHeight="1">
+    <row r="3" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="110" customHeight="1">
+    <row r="5" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="110" customHeight="1">
+    <row r="7" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="110" customHeight="1">
+    <row r="9" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="110" customHeight="1">
+    <row r="11" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="110" customHeight="1">
+    <row r="13" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="110" customHeight="1">
+    <row r="15" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="110" customHeight="1">
+    <row r="17" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="110" customHeight="1">
+    <row r="19" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="110" customHeight="1">
+    <row r="21" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>119646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="110" customHeight="1">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="B24" t="s">
+    <row r="25" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="110" customHeight="1">
-      <c r="A25" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="B26" t="s">
+    <row r="27" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="110" customHeight="1">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="B28" t="s">
+    <row r="29" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="110" customHeight="1">
-      <c r="A29" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="B30" t="s">
+    <row r="31" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="110" customHeight="1">
-      <c r="A31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="B32" t="s">
+    <row r="33" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="110" customHeight="1">
-      <c r="A33" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="B34" t="s">
+    <row r="35" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="110" customHeight="1">
-      <c r="A35" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
+    <row r="37" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="110" customHeight="1">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="B38" t="s">
+    <row r="39" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="110" customHeight="1">
-      <c r="A39" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="B40" t="s">
+    <row r="41" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="110" customHeight="1">
-      <c r="A41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="B42" t="s">
+    <row r="43" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="110" customHeight="1">
-      <c r="A43" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="B44" t="s">
+    <row r="45" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="110" customHeight="1">
-      <c r="A45" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="B46" t="s">
+    <row r="47" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="110" customHeight="1">
-      <c r="A47" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="B48" t="s">
+    <row r="49" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="110" customHeight="1">
-      <c r="A49" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="B50" t="s">
+    <row r="51" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="110" customHeight="1">
-      <c r="A51" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="B52" t="s">
+    <row r="53" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="110" customHeight="1">
-      <c r="A53" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="B54" t="s">
+    <row r="55" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="110" customHeight="1">
-      <c r="A55" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="B56" t="s">
+    <row r="57" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="110" customHeight="1">
-      <c r="A57" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="B58" t="s">
+    <row r="59" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="110" customHeight="1">
-      <c r="A59" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="B60" t="s">
+    <row r="61" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="110" customHeight="1">
-      <c r="A61" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="B62" t="s">
+    <row r="63" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="110" customHeight="1">
-      <c r="A63" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="B64" t="s">
+    <row r="65" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="110" customHeight="1">
-      <c r="A65" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="B66" t="s">
+    <row r="67" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="110" customHeight="1">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="B68" t="s">
-        <v>55</v>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/run.xlsx
+++ b/run.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -19,196 +19,196 @@
     <t>Rune Age</t>
   </si>
   <si>
-    <t>16251</t>
+    <t>9999</t>
   </si>
   <si>
     <t>Rune Cha</t>
   </si>
   <si>
-    <t>9978</t>
+    <t>9500</t>
   </si>
   <si>
     <t>Rune Fo</t>
   </si>
   <si>
-    <t>3977</t>
+    <t>3500</t>
   </si>
   <si>
     <t>Rune Ine</t>
   </si>
   <si>
-    <t>8381</t>
+    <t>5797</t>
   </si>
   <si>
     <t>Rune Pod</t>
   </si>
   <si>
-    <t>15491</t>
+    <t>15479</t>
   </si>
   <si>
     <t>Rune Vi</t>
   </si>
   <si>
-    <t>18247</t>
+    <t>15000</t>
   </si>
   <si>
     <t>Rune Sa</t>
   </si>
   <si>
-    <t>11494</t>
+    <t>10000</t>
   </si>
   <si>
     <t>Rune Pui</t>
   </si>
   <si>
-    <t>27998</t>
+    <t>30000</t>
   </si>
   <si>
     <t>Rune So</t>
   </si>
   <si>
-    <t>37485</t>
+    <t>37466</t>
   </si>
   <si>
     <t>Rune Do Air</t>
   </si>
   <si>
-    <t>100764</t>
+    <t>110983</t>
   </si>
   <si>
     <t>Rune Do Eau</t>
   </si>
   <si>
+    <t>100000</t>
+  </si>
+  <si>
     <t>Rune Do Feu</t>
   </si>
   <si>
-    <t>92180</t>
+    <t>89847</t>
   </si>
   <si>
     <t>Rune Do Terre</t>
   </si>
   <si>
-    <t>76390</t>
+    <t>72000</t>
   </si>
   <si>
     <t>Rune Pa Age</t>
   </si>
   <si>
-    <t>36685</t>
+    <t>37544</t>
   </si>
   <si>
     <t>Rune Pa Cha</t>
   </si>
   <si>
-    <t>31663</t>
+    <t>29998</t>
   </si>
   <si>
     <t>Rune Pa Fo</t>
   </si>
   <si>
-    <t>12496</t>
+    <t>12580</t>
   </si>
   <si>
     <t>Rune Pa Ine</t>
   </si>
   <si>
-    <t>24896</t>
+    <t>24986</t>
   </si>
   <si>
     <t>Rune Pa Pod</t>
   </si>
   <si>
-    <t>56285</t>
+    <t>56283</t>
   </si>
   <si>
     <t>Rune Pa Vi</t>
   </si>
   <si>
-    <t>58250</t>
+    <t>58428</t>
   </si>
   <si>
     <t>Rune Pa Sa</t>
   </si>
   <si>
-    <t>38898</t>
+    <t>38063</t>
   </si>
   <si>
     <t>Rune Pa Pui</t>
   </si>
   <si>
-    <t>92989</t>
+    <t>119978</t>
   </si>
   <si>
     <t>Rune Pa So</t>
   </si>
   <si>
-    <t>119179</t>
+    <t>119221</t>
   </si>
   <si>
     <t>Rune Pa Do Air</t>
   </si>
   <si>
-    <t>329898</t>
+    <t>329884</t>
   </si>
   <si>
     <t>Rune Pa Do Eau</t>
   </si>
   <si>
-    <t>376996</t>
+    <t>376690</t>
   </si>
   <si>
     <t>Rune Pa Do Feu</t>
   </si>
   <si>
-    <t>319437</t>
+    <t>319197</t>
   </si>
   <si>
     <t>Rune Pa Do Terre</t>
   </si>
   <si>
-    <t>224999</t>
+    <t>236883</t>
   </si>
   <si>
     <t>Rune Ra Age</t>
   </si>
   <si>
-    <t>119991</t>
-  </si>
-  <si>
     <t>Rune Ra Cha</t>
   </si>
   <si>
-    <t>100996</t>
+    <t>99599</t>
   </si>
   <si>
     <t>Rune Ra Fo</t>
   </si>
   <si>
-    <t>36999</t>
+    <t>37391</t>
   </si>
   <si>
     <t>Rune Ra Ine</t>
   </si>
   <si>
-    <t>76900</t>
+    <t>74983</t>
   </si>
   <si>
     <t>Rune Ra Pod</t>
   </si>
   <si>
-    <t>147699</t>
+    <t>145000</t>
   </si>
   <si>
     <t>Rune Ra Vi</t>
   </si>
   <si>
-    <t>173300</t>
+    <t>171000</t>
   </si>
   <si>
     <t>Rune Ra Sa</t>
   </si>
   <si>
-    <t>98971</t>
+    <t>98954</t>
   </si>
   <si>
     <t>Rune Ra Pui</t>
@@ -1540,7 +1540,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1849,8 +1849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B61" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1966,168 +1966,168 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>119646</v>
+      <c r="B22" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>52</v>
+      <c r="B54">
+        <v>115693</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2197,7 +2197,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68">
-        <v>1</v>
+        <v>39987</v>
       </c>
     </row>
   </sheetData>

--- a/run.xlsx
+++ b/run.xlsx
@@ -14,204 +14,210 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Rune Age</t>
   </si>
   <si>
-    <t>9999</t>
+    <t>10895</t>
   </si>
   <si>
     <t>Rune Cha</t>
   </si>
   <si>
-    <t>9500</t>
+    <t>8897</t>
   </si>
   <si>
     <t>Rune Fo</t>
   </si>
   <si>
-    <t>3500</t>
+    <t>3998</t>
   </si>
   <si>
     <t>Rune Ine</t>
   </si>
   <si>
-    <t>5797</t>
+    <t>7890</t>
   </si>
   <si>
     <t>Rune Pod</t>
   </si>
   <si>
-    <t>15479</t>
+    <t>14995</t>
   </si>
   <si>
     <t>Rune Vi</t>
   </si>
   <si>
-    <t>15000</t>
+    <t>17898</t>
   </si>
   <si>
     <t>Rune Sa</t>
   </si>
   <si>
-    <t>10000</t>
+    <t>9585</t>
   </si>
   <si>
     <t>Rune Pui</t>
   </si>
   <si>
-    <t>30000</t>
+    <t>40995</t>
   </si>
   <si>
     <t>Rune So</t>
   </si>
   <si>
-    <t>37466</t>
+    <t>36988</t>
   </si>
   <si>
     <t>Rune Do Air</t>
   </si>
   <si>
-    <t>110983</t>
+    <t>113996</t>
   </si>
   <si>
     <t>Rune Do Eau</t>
   </si>
   <si>
-    <t>100000</t>
+    <t>110977</t>
   </si>
   <si>
     <t>Rune Do Feu</t>
   </si>
   <si>
-    <t>89847</t>
+    <t>92557</t>
   </si>
   <si>
     <t>Rune Do Terre</t>
   </si>
   <si>
-    <t>72000</t>
+    <t>65998</t>
   </si>
   <si>
     <t>Rune Pa Age</t>
   </si>
   <si>
-    <t>37544</t>
+    <t>38995</t>
   </si>
   <si>
     <t>Rune Pa Cha</t>
   </si>
   <si>
-    <t>29998</t>
+    <t>31993</t>
   </si>
   <si>
     <t>Rune Pa Fo</t>
   </si>
   <si>
-    <t>12580</t>
+    <t>12781</t>
   </si>
   <si>
     <t>Rune Pa Ine</t>
   </si>
   <si>
-    <t>24986</t>
+    <t>24340</t>
   </si>
   <si>
     <t>Rune Pa Pod</t>
   </si>
   <si>
-    <t>56283</t>
+    <t>56265</t>
   </si>
   <si>
     <t>Rune Pa Vi</t>
   </si>
   <si>
-    <t>58428</t>
+    <t>55998</t>
   </si>
   <si>
     <t>Rune Pa Sa</t>
   </si>
   <si>
-    <t>38063</t>
+    <t>35200</t>
   </si>
   <si>
     <t>Rune Pa Pui</t>
   </si>
   <si>
-    <t>119978</t>
+    <t>133762</t>
   </si>
   <si>
     <t>Rune Pa So</t>
   </si>
   <si>
-    <t>119221</t>
+    <t>119994</t>
   </si>
   <si>
     <t>Rune Pa Do Air</t>
   </si>
   <si>
-    <t>329884</t>
+    <t>326994</t>
   </si>
   <si>
     <t>Rune Pa Do Eau</t>
   </si>
   <si>
-    <t>376690</t>
+    <t>374988</t>
   </si>
   <si>
     <t>Rune Pa Do Feu</t>
   </si>
   <si>
-    <t>319197</t>
+    <t>279793</t>
   </si>
   <si>
     <t>Rune Pa Do Terre</t>
   </si>
   <si>
-    <t>236883</t>
+    <t>235995</t>
   </si>
   <si>
     <t>Rune Ra Age</t>
   </si>
   <si>
+    <t>111105</t>
+  </si>
+  <si>
     <t>Rune Ra Cha</t>
   </si>
   <si>
-    <t>99599</t>
+    <t>99298</t>
   </si>
   <si>
     <t>Rune Ra Fo</t>
   </si>
   <si>
-    <t>37391</t>
+    <t>50645</t>
   </si>
   <si>
     <t>Rune Ra Ine</t>
   </si>
   <si>
-    <t>74983</t>
+    <t>69998</t>
   </si>
   <si>
     <t>Rune Ra Pod</t>
   </si>
   <si>
-    <t>145000</t>
+    <t>143997</t>
   </si>
   <si>
     <t>Rune Ra Vi</t>
   </si>
   <si>
-    <t>171000</t>
+    <t>169831</t>
   </si>
   <si>
     <t>Rune Ra Sa</t>
   </si>
   <si>
-    <t>98954</t>
+    <t>88485</t>
   </si>
   <si>
     <t>Rune Ra Pui</t>
+  </si>
+  <si>
+    <t>399996</t>
   </si>
 </sst>
 </file>
@@ -1540,7 +1546,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1849,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2126,78 +2132,78 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>115693</v>
+      <c r="B54" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>39987</v>
+      <c r="B68" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/run.xlsx
+++ b/run.xlsx
@@ -19,205 +19,205 @@
     <t>Rune Age</t>
   </si>
   <si>
-    <t>10895</t>
+    <t>9983</t>
   </si>
   <si>
     <t>Rune Cha</t>
   </si>
   <si>
-    <t>8897</t>
+    <t>10698</t>
   </si>
   <si>
     <t>Rune Fo</t>
   </si>
   <si>
-    <t>3998</t>
+    <t>9831</t>
   </si>
   <si>
     <t>Rune Ine</t>
   </si>
   <si>
-    <t>7890</t>
+    <t>7685</t>
   </si>
   <si>
     <t>Rune Pod</t>
   </si>
   <si>
-    <t>14995</t>
+    <t>14973</t>
   </si>
   <si>
     <t>Rune Vi</t>
   </si>
   <si>
-    <t>17898</t>
+    <t>18990</t>
   </si>
   <si>
     <t>Rune Sa</t>
   </si>
   <si>
-    <t>9585</t>
+    <t>13161</t>
   </si>
   <si>
     <t>Rune Pui</t>
   </si>
   <si>
-    <t>40995</t>
+    <t>35776</t>
   </si>
   <si>
     <t>Rune So</t>
   </si>
   <si>
-    <t>36988</t>
+    <t>42445</t>
   </si>
   <si>
     <t>Rune Do Air</t>
   </si>
   <si>
-    <t>113996</t>
+    <t>109741</t>
   </si>
   <si>
     <t>Rune Do Eau</t>
   </si>
   <si>
-    <t>110977</t>
+    <t>101985</t>
   </si>
   <si>
     <t>Rune Do Feu</t>
   </si>
   <si>
-    <t>92557</t>
+    <t>104743</t>
   </si>
   <si>
     <t>Rune Do Terre</t>
   </si>
   <si>
-    <t>65998</t>
+    <t>74944</t>
   </si>
   <si>
     <t>Rune Pa Age</t>
   </si>
   <si>
-    <t>38995</t>
+    <t>35670</t>
   </si>
   <si>
     <t>Rune Pa Cha</t>
   </si>
   <si>
-    <t>31993</t>
+    <t>31800</t>
   </si>
   <si>
     <t>Rune Pa Fo</t>
   </si>
   <si>
-    <t>12781</t>
+    <t>24933</t>
   </si>
   <si>
     <t>Rune Pa Ine</t>
   </si>
   <si>
-    <t>24340</t>
+    <t>24328</t>
   </si>
   <si>
     <t>Rune Pa Pod</t>
   </si>
   <si>
-    <t>56265</t>
+    <t>55954</t>
   </si>
   <si>
     <t>Rune Pa Vi</t>
   </si>
   <si>
-    <t>55998</t>
+    <t>56789</t>
   </si>
   <si>
     <t>Rune Pa Sa</t>
   </si>
   <si>
-    <t>35200</t>
+    <t>40721</t>
   </si>
   <si>
     <t>Rune Pa Pui</t>
   </si>
   <si>
-    <t>133762</t>
+    <t>131975</t>
   </si>
   <si>
     <t>Rune Pa So</t>
   </si>
   <si>
-    <t>119994</t>
+    <t>127999</t>
   </si>
   <si>
     <t>Rune Pa Do Air</t>
   </si>
   <si>
-    <t>326994</t>
+    <t>325998</t>
   </si>
   <si>
     <t>Rune Pa Do Eau</t>
   </si>
   <si>
-    <t>374988</t>
+    <t>299986</t>
   </si>
   <si>
     <t>Rune Pa Do Feu</t>
   </si>
   <si>
-    <t>279793</t>
+    <t>278751</t>
   </si>
   <si>
     <t>Rune Pa Do Terre</t>
   </si>
   <si>
-    <t>235995</t>
+    <t>235794</t>
   </si>
   <si>
     <t>Rune Ra Age</t>
   </si>
   <si>
-    <t>111105</t>
+    <t>111109</t>
   </si>
   <si>
     <t>Rune Ra Cha</t>
   </si>
   <si>
-    <t>99298</t>
+    <t>94997</t>
   </si>
   <si>
     <t>Rune Ra Fo</t>
   </si>
   <si>
-    <t>50645</t>
+    <t>45487</t>
   </si>
   <si>
     <t>Rune Ra Ine</t>
   </si>
   <si>
-    <t>69998</t>
+    <t>72444</t>
   </si>
   <si>
     <t>Rune Ra Pod</t>
   </si>
   <si>
-    <t>143997</t>
+    <t>137951</t>
   </si>
   <si>
     <t>Rune Ra Vi</t>
   </si>
   <si>
-    <t>169831</t>
+    <t>168484</t>
   </si>
   <si>
     <t>Rune Ra Sa</t>
   </si>
   <si>
-    <t>88485</t>
+    <t>127763</t>
   </si>
   <si>
     <t>Rune Ra Pui</t>
   </si>
   <si>
-    <t>399996</t>
+    <t>349989</t>
   </si>
 </sst>
 </file>
@@ -1855,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/run.xlsx
+++ b/run.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -19,212 +19,212 @@
     <t>Rune Age</t>
   </si>
   <si>
-    <t>9983</t>
+    <t>9600</t>
   </si>
   <si>
     <t>Rune Cha</t>
   </si>
   <si>
-    <t>10698</t>
+    <t>9984</t>
   </si>
   <si>
     <t>Rune Fo</t>
   </si>
   <si>
-    <t>9831</t>
+    <t>6493</t>
   </si>
   <si>
     <t>Rune Ine</t>
   </si>
   <si>
-    <t>7685</t>
+    <t>6988</t>
   </si>
   <si>
     <t>Rune Pod</t>
   </si>
   <si>
-    <t>14973</t>
+    <t>11499</t>
   </si>
   <si>
     <t>Rune Vi</t>
   </si>
   <si>
-    <t>18990</t>
+    <t>17218</t>
   </si>
   <si>
     <t>Rune Sa</t>
   </si>
   <si>
-    <t>13161</t>
+    <t>11000</t>
   </si>
   <si>
     <t>Rune Pui</t>
   </si>
   <si>
-    <t>35776</t>
+    <t>26391</t>
   </si>
   <si>
     <t>Rune So</t>
   </si>
   <si>
-    <t>42445</t>
+    <t>78674</t>
   </si>
   <si>
     <t>Rune Do Air</t>
   </si>
   <si>
-    <t>109741</t>
+    <t>112889</t>
   </si>
   <si>
     <t>Rune Do Eau</t>
   </si>
   <si>
-    <t>101985</t>
+    <t>119969</t>
   </si>
   <si>
     <t>Rune Do Feu</t>
   </si>
   <si>
-    <t>104743</t>
+    <t>108254</t>
   </si>
   <si>
     <t>Rune Do Terre</t>
   </si>
   <si>
-    <t>74944</t>
+    <t>75424</t>
   </si>
   <si>
     <t>Rune Pa Age</t>
   </si>
   <si>
-    <t>35670</t>
+    <t>34973</t>
   </si>
   <si>
     <t>Rune Pa Cha</t>
   </si>
   <si>
-    <t>31800</t>
+    <t>47948</t>
   </si>
   <si>
     <t>Rune Pa Fo</t>
   </si>
   <si>
-    <t>24933</t>
+    <t>21903</t>
   </si>
   <si>
     <t>Rune Pa Ine</t>
   </si>
   <si>
-    <t>24328</t>
+    <t>22500</t>
   </si>
   <si>
     <t>Rune Pa Pod</t>
   </si>
   <si>
-    <t>55954</t>
+    <t>35000</t>
   </si>
   <si>
     <t>Rune Pa Vi</t>
   </si>
   <si>
-    <t>56789</t>
+    <t>55762</t>
   </si>
   <si>
     <t>Rune Pa Sa</t>
   </si>
   <si>
-    <t>40721</t>
+    <t>53686</t>
   </si>
   <si>
     <t>Rune Pa Pui</t>
   </si>
   <si>
-    <t>131975</t>
+    <t>117809</t>
   </si>
   <si>
     <t>Rune Pa So</t>
   </si>
   <si>
-    <t>127999</t>
+    <t>129830</t>
   </si>
   <si>
     <t>Rune Pa Do Air</t>
   </si>
   <si>
-    <t>325998</t>
+    <t>319870</t>
   </si>
   <si>
     <t>Rune Pa Do Eau</t>
   </si>
   <si>
-    <t>299986</t>
+    <t>374798</t>
   </si>
   <si>
     <t>Rune Pa Do Feu</t>
   </si>
   <si>
-    <t>278751</t>
+    <t>278747</t>
   </si>
   <si>
     <t>Rune Pa Do Terre</t>
   </si>
   <si>
-    <t>235794</t>
+    <t>219926</t>
   </si>
   <si>
     <t>Rune Ra Age</t>
   </si>
   <si>
-    <t>111109</t>
+    <t>83926</t>
   </si>
   <si>
     <t>Rune Ra Cha</t>
   </si>
   <si>
-    <t>94997</t>
+    <t>94972</t>
   </si>
   <si>
     <t>Rune Ra Fo</t>
   </si>
   <si>
-    <t>45487</t>
+    <t>33201</t>
   </si>
   <si>
     <t>Rune Ra Ine</t>
   </si>
   <si>
-    <t>72444</t>
+    <t>67870</t>
   </si>
   <si>
     <t>Rune Ra Pod</t>
   </si>
   <si>
-    <t>137951</t>
+    <t>143984</t>
   </si>
   <si>
     <t>Rune Ra Vi</t>
   </si>
   <si>
-    <t>168484</t>
+    <t>124882</t>
   </si>
   <si>
     <t>Rune Ra Sa</t>
   </si>
   <si>
-    <t>127763</t>
+    <t>77966</t>
   </si>
   <si>
     <t>Rune Ra Pui</t>
   </si>
   <si>
-    <t>349989</t>
+    <t>329986</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,11 +261,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1567,7 +1562,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1641,7 +1636,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1676,7 +1670,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1852,356 +1845,355 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="110" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="110" customHeight="1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="110" customHeight="1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="110" customHeight="1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="110" customHeight="1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="110" customHeight="1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="110" customHeight="1">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="110" customHeight="1">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="110" customHeight="1">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="110" customHeight="1">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="110" customHeight="1">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="110" customHeight="1">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="110" customHeight="1">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="B26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="110" customHeight="1">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="B28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="110" customHeight="1">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="110" customHeight="1">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="110" customHeight="1">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="110" customHeight="1">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="B36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="110" customHeight="1">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="110" customHeight="1">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="B40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="110" customHeight="1">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="110" customHeight="1">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="B44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="110" customHeight="1">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="B46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="110" customHeight="1">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="B48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="110" customHeight="1">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="B50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="110" customHeight="1">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="B52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="110" customHeight="1">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="B54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="110" customHeight="1">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="B56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="110" customHeight="1">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="B58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="110" customHeight="1">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="B60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="110" customHeight="1">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="B62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="110" customHeight="1">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="B64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="110" customHeight="1">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="B66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="110" customHeight="1">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="B68" t="s">
         <v>67</v>
       </c>

--- a/run.xlsx
+++ b/run.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,222 +9,126 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Rune Age</t>
   </si>
   <si>
-    <t>9600</t>
+    <t>005</t>
   </si>
   <si>
     <t>Rune Cha</t>
   </si>
   <si>
-    <t>9984</t>
+    <t>0100</t>
   </si>
   <si>
     <t>Rune Fo</t>
   </si>
   <si>
-    <t>6493</t>
-  </si>
-  <si>
     <t>Rune Ine</t>
   </si>
   <si>
-    <t>6988</t>
-  </si>
-  <si>
     <t>Rune Pod</t>
   </si>
   <si>
-    <t>11499</t>
-  </si>
-  <si>
     <t>Rune Vi</t>
   </si>
   <si>
-    <t>17218</t>
-  </si>
-  <si>
     <t>Rune Sa</t>
   </si>
   <si>
-    <t>11000</t>
-  </si>
-  <si>
     <t>Rune Pui</t>
   </si>
   <si>
-    <t>26391</t>
-  </si>
-  <si>
     <t>Rune So</t>
   </si>
   <si>
-    <t>78674</t>
-  </si>
-  <si>
     <t>Rune Do Air</t>
   </si>
   <si>
-    <t>112889</t>
-  </si>
-  <si>
     <t>Rune Do Eau</t>
   </si>
   <si>
-    <t>119969</t>
-  </si>
-  <si>
     <t>Rune Do Feu</t>
   </si>
   <si>
-    <t>108254</t>
-  </si>
-  <si>
     <t>Rune Do Terre</t>
   </si>
   <si>
-    <t>75424</t>
-  </si>
-  <si>
     <t>Rune Pa Age</t>
   </si>
   <si>
-    <t>34973</t>
-  </si>
-  <si>
     <t>Rune Pa Cha</t>
   </si>
   <si>
-    <t>47948</t>
-  </si>
-  <si>
     <t>Rune Pa Fo</t>
   </si>
   <si>
-    <t>21903</t>
-  </si>
-  <si>
     <t>Rune Pa Ine</t>
   </si>
   <si>
-    <t>22500</t>
-  </si>
-  <si>
     <t>Rune Pa Pod</t>
   </si>
   <si>
-    <t>35000</t>
-  </si>
-  <si>
     <t>Rune Pa Vi</t>
   </si>
   <si>
-    <t>55762</t>
-  </si>
-  <si>
     <t>Rune Pa Sa</t>
   </si>
   <si>
-    <t>53686</t>
-  </si>
-  <si>
     <t>Rune Pa Pui</t>
   </si>
   <si>
-    <t>117809</t>
-  </si>
-  <si>
     <t>Rune Pa So</t>
   </si>
   <si>
-    <t>129830</t>
-  </si>
-  <si>
     <t>Rune Pa Do Air</t>
   </si>
   <si>
-    <t>319870</t>
-  </si>
-  <si>
     <t>Rune Pa Do Eau</t>
   </si>
   <si>
-    <t>374798</t>
-  </si>
-  <si>
     <t>Rune Pa Do Feu</t>
   </si>
   <si>
-    <t>278747</t>
-  </si>
-  <si>
     <t>Rune Pa Do Terre</t>
   </si>
   <si>
-    <t>219926</t>
-  </si>
-  <si>
     <t>Rune Ra Age</t>
   </si>
   <si>
-    <t>83926</t>
-  </si>
-  <si>
     <t>Rune Ra Cha</t>
   </si>
   <si>
-    <t>94972</t>
-  </si>
-  <si>
     <t>Rune Ra Fo</t>
   </si>
   <si>
-    <t>33201</t>
-  </si>
-  <si>
     <t>Rune Ra Ine</t>
   </si>
   <si>
-    <t>67870</t>
-  </si>
-  <si>
     <t>Rune Ra Pod</t>
   </si>
   <si>
-    <t>143984</t>
-  </si>
-  <si>
     <t>Rune Ra Vi</t>
   </si>
   <si>
-    <t>124882</t>
-  </si>
-  <si>
     <t>Rune Ra Sa</t>
   </si>
   <si>
-    <t>77966</t>
-  </si>
-  <si>
     <t>Rune Ra Pui</t>
-  </si>
-  <si>
-    <t>329986</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +165,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1562,7 +1471,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1636,6 +1545,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1670,6 +1580,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1845,357 +1756,358 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="110" customHeight="1">
+    <row r="1" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="110" customHeight="1">
+    <row r="3" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="110" customHeight="1">
+    <row r="5" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="110" customHeight="1">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="B8" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>11994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="110" customHeight="1">
-      <c r="A9" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>16547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>15986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="110" customHeight="1">
-      <c r="A11" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="B12" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>57949</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="110" customHeight="1">
-      <c r="A13" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>118590</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="B14" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>129990</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="110" customHeight="1">
-      <c r="A15" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>93991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="B16" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>72847</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="110" customHeight="1">
-      <c r="A17" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>31447</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>34465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="110" customHeight="1">
-      <c r="A19" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>18862</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>20848</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="110" customHeight="1">
-      <c r="A21" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>34497</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>52178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="110" customHeight="1">
-      <c r="A23" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>50572</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="B24" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>94996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="110" customHeight="1">
-      <c r="A25" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>128928</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="B26" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>319786</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="110" customHeight="1">
-      <c r="A27" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>397000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="B28" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>275997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="110" customHeight="1">
-      <c r="A29" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>188988</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="B30" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>82991</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="110" customHeight="1">
-      <c r="A31" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>94990</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="B32" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>33199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="110" customHeight="1">
-      <c r="A33" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>59995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="B34" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>143793</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="110" customHeight="1">
-      <c r="A35" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>146880</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>106830</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="110" customHeight="1">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="110" customHeight="1">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="110" customHeight="1">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="B42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="110" customHeight="1">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="110" customHeight="1">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="110" customHeight="1">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="B48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="110" customHeight="1">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="B50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="110" customHeight="1">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="B52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="110" customHeight="1">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="B54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="110" customHeight="1">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="B56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="110" customHeight="1">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="B58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="110" customHeight="1">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="B60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="110" customHeight="1">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="B62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="110" customHeight="1">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="B64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="110" customHeight="1">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="B66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="110" customHeight="1">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="B68" t="s">
-        <v>67</v>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>319939</v>
       </c>
     </row>
   </sheetData>

--- a/run.xlsx
+++ b/run.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,126 +9,222 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Rune Age</t>
   </si>
   <si>
-    <t>005</t>
+    <t>8098</t>
   </si>
   <si>
     <t>Rune Cha</t>
   </si>
   <si>
-    <t>0100</t>
+    <t>9200</t>
   </si>
   <si>
     <t>Rune Fo</t>
   </si>
   <si>
+    <t>4598</t>
+  </si>
+  <si>
     <t>Rune Ine</t>
   </si>
   <si>
+    <t>5398</t>
+  </si>
+  <si>
     <t>Rune Pod</t>
   </si>
   <si>
+    <t>11990</t>
+  </si>
+  <si>
     <t>Rune Vi</t>
   </si>
   <si>
+    <t>15944</t>
+  </si>
+  <si>
     <t>Rune Sa</t>
   </si>
   <si>
+    <t>15364</t>
+  </si>
+  <si>
     <t>Rune Pui</t>
   </si>
   <si>
+    <t>31070</t>
+  </si>
+  <si>
     <t>Rune So</t>
   </si>
   <si>
+    <t>44993</t>
+  </si>
+  <si>
     <t>Rune Do Air</t>
   </si>
   <si>
+    <t>121775</t>
+  </si>
+  <si>
     <t>Rune Do Eau</t>
   </si>
   <si>
+    <t>122555</t>
+  </si>
+  <si>
     <t>Rune Do Feu</t>
   </si>
   <si>
+    <t>88790</t>
+  </si>
+  <si>
     <t>Rune Do Terre</t>
   </si>
   <si>
+    <t>71847</t>
+  </si>
+  <si>
     <t>Rune Pa Age</t>
   </si>
   <si>
+    <t>29811</t>
+  </si>
+  <si>
     <t>Rune Pa Cha</t>
   </si>
   <si>
+    <t>32446</t>
+  </si>
+  <si>
     <t>Rune Pa Fo</t>
   </si>
   <si>
+    <t>14200</t>
+  </si>
+  <si>
     <t>Rune Pa Ine</t>
   </si>
   <si>
+    <t>19999</t>
+  </si>
+  <si>
     <t>Rune Pa Pod</t>
   </si>
   <si>
+    <t>34444</t>
+  </si>
+  <si>
     <t>Rune Pa Vi</t>
   </si>
   <si>
+    <t>48965</t>
+  </si>
+  <si>
     <t>Rune Pa Sa</t>
   </si>
   <si>
+    <t>48891</t>
+  </si>
+  <si>
     <t>Rune Pa Pui</t>
   </si>
   <si>
+    <t>99879</t>
+  </si>
+  <si>
     <t>Rune Pa So</t>
   </si>
   <si>
+    <t>124990</t>
+  </si>
+  <si>
     <t>Rune Pa Do Air</t>
   </si>
   <si>
+    <t>319785</t>
+  </si>
+  <si>
     <t>Rune Pa Do Eau</t>
   </si>
   <si>
+    <t>396993</t>
+  </si>
+  <si>
     <t>Rune Pa Do Feu</t>
   </si>
   <si>
+    <t>279780</t>
+  </si>
+  <si>
     <t>Rune Pa Do Terre</t>
   </si>
   <si>
+    <t>189995</t>
+  </si>
+  <si>
     <t>Rune Ra Age</t>
   </si>
   <si>
+    <t>82957</t>
+  </si>
+  <si>
     <t>Rune Ra Cha</t>
   </si>
   <si>
+    <t>94863</t>
+  </si>
+  <si>
     <t>Rune Ra Fo</t>
   </si>
   <si>
+    <t>33195</t>
+  </si>
+  <si>
     <t>Rune Ra Ine</t>
   </si>
   <si>
+    <t>59879</t>
+  </si>
+  <si>
     <t>Rune Ra Pod</t>
   </si>
   <si>
+    <t>143700</t>
+  </si>
+  <si>
     <t>Rune Ra Vi</t>
   </si>
   <si>
+    <t>146674</t>
+  </si>
+  <si>
     <t>Rune Ra Sa</t>
   </si>
   <si>
+    <t>104992</t>
+  </si>
+  <si>
     <t>Rune Ra Pui</t>
+  </si>
+  <si>
+    <t>315994</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,11 +261,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1471,7 +1562,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1545,7 +1636,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1580,7 +1670,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1756,358 +1845,357 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="110" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="110" customHeight="1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="110" customHeight="1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>4681</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="110" customHeight="1">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>5663</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="110" customHeight="1">
       <c r="A9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>11994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="110" customHeight="1">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>16547</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="110" customHeight="1">
       <c r="A13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>15986</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="110" customHeight="1">
       <c r="A15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>31500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="110" customHeight="1">
       <c r="A17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>57949</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="110" customHeight="1">
       <c r="A19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>118590</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="110" customHeight="1">
       <c r="A21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>129990</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="110" customHeight="1">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>93991</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="110" customHeight="1">
       <c r="A25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>72847</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="110" customHeight="1">
       <c r="A27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>31447</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="110" customHeight="1">
       <c r="A29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>34465</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="110" customHeight="1">
       <c r="A31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>18862</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="110" customHeight="1">
       <c r="A33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>20848</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="110" customHeight="1">
       <c r="A35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>34497</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="110" customHeight="1">
       <c r="A37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>52178</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="110" customHeight="1">
       <c r="A39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>50572</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="110" customHeight="1">
       <c r="A41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>94996</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="110" customHeight="1">
       <c r="A43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>128928</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="110" customHeight="1">
       <c r="A45" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>319786</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="110" customHeight="1">
       <c r="A47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>397000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="110" customHeight="1">
       <c r="A49" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>275997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="110" customHeight="1">
       <c r="A51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>188988</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="110" customHeight="1">
       <c r="A53" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>82991</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="110" customHeight="1">
       <c r="A55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>94990</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="110" customHeight="1">
       <c r="A57" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>33199</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="110" customHeight="1">
       <c r="A59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>59995</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="110" customHeight="1">
       <c r="A61" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>143793</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="110" customHeight="1">
       <c r="A63" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>146880</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="110" customHeight="1">
       <c r="A65" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>106830</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="110" customHeight="1">
       <c r="A67" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>319939</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="B68" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/run.xlsx
+++ b/run.xlsx
@@ -19,205 +19,209 @@
     <t>Rune Age</t>
   </si>
   <si>
-    <t>8098</t>
+    <t>7987</t>
   </si>
   <si>
     <t>Rune Cha</t>
   </si>
   <si>
-    <t>9200</t>
+    <t>9897</t>
   </si>
   <si>
     <t>Rune Fo</t>
   </si>
   <si>
-    <t>4598</t>
+    <t>3799</t>
   </si>
   <si>
     <t>Rune Ine</t>
   </si>
   <si>
-    <t>5398</t>
+    <t>4999</t>
   </si>
   <si>
     <t>Rune Pod</t>
   </si>
   <si>
-    <t>11990</t>
+    <t>11998</t>
   </si>
   <si>
     <t>Rune Vi</t>
   </si>
   <si>
-    <t>15944</t>
+    <t>14999</t>
   </si>
   <si>
     <t>Rune Sa</t>
   </si>
   <si>
-    <t>15364</t>
+    <t>13892</t>
   </si>
   <si>
     <t>Rune Pui</t>
   </si>
   <si>
-    <t>31070</t>
+    <t>30884</t>
   </si>
   <si>
     <t>Rune So</t>
   </si>
   <si>
-    <t>44993</t>
+    <t>43955</t>
   </si>
   <si>
     <t>Rune Do Air</t>
   </si>
   <si>
-    <t>121775</t>
+    <t>121696</t>
   </si>
   <si>
     <t>Rune Do Eau</t>
   </si>
   <si>
-    <t>122555</t>
+    <t>182278</t>
   </si>
   <si>
     <t>Rune Do Feu</t>
   </si>
   <si>
-    <t>88790</t>
+    <t>89493</t>
   </si>
   <si>
     <t>Rune Do Terre</t>
   </si>
   <si>
-    <t>71847</t>
+    <t>71763</t>
   </si>
   <si>
     <t>Rune Pa Age</t>
   </si>
   <si>
-    <t>29811</t>
+    <t>29733</t>
   </si>
   <si>
     <t>Rune Pa Cha</t>
   </si>
   <si>
-    <t>32446</t>
+    <t>30799</t>
   </si>
   <si>
     <t>Rune Pa Fo</t>
   </si>
   <si>
-    <t>14200</t>
+    <t>12871</t>
   </si>
   <si>
     <t>Rune Pa Ine</t>
   </si>
   <si>
-    <t>19999</t>
+    <t>19995</t>
   </si>
   <si>
     <t>Rune Pa Pod</t>
   </si>
   <si>
-    <t>34444</t>
+    <t>34498</t>
   </si>
   <si>
     <t>Rune Pa Vi</t>
   </si>
   <si>
-    <t>48965</t>
+    <t>52179</t>
   </si>
   <si>
     <t>Rune Pa Sa</t>
   </si>
   <si>
-    <t>48891</t>
+    <t>48795</t>
   </si>
   <si>
     <t>Rune Pa Pui</t>
   </si>
   <si>
-    <t>99879</t>
+    <t>117823</t>
   </si>
   <si>
     <t>Rune Pa So</t>
   </si>
   <si>
-    <t>124990</t>
+    <t>129860</t>
   </si>
   <si>
     <t>Rune Pa Do Air</t>
   </si>
   <si>
-    <t>319785</t>
+    <t>325973</t>
   </si>
   <si>
     <t>Rune Pa Do Eau</t>
   </si>
   <si>
-    <t>396993</t>
+    <t>I'll'-I".I.
+I‘_
+__},.41:
+._9
+J‘,'A..'.:".Ei-I</t>
   </si>
   <si>
     <t>Rune Pa Do Feu</t>
   </si>
   <si>
-    <t>279780</t>
+    <t>279893</t>
   </si>
   <si>
     <t>Rune Pa Do Terre</t>
   </si>
   <si>
-    <t>189995</t>
+    <t>219919</t>
   </si>
   <si>
     <t>Rune Ra Age</t>
   </si>
   <si>
-    <t>82957</t>
+    <t>83992</t>
   </si>
   <si>
     <t>Rune Ra Cha</t>
   </si>
   <si>
-    <t>94863</t>
+    <t>99590</t>
   </si>
   <si>
     <t>Rune Ra Fo</t>
   </si>
   <si>
-    <t>33195</t>
+    <t>38884</t>
   </si>
   <si>
     <t>Rune Ra Ine</t>
   </si>
   <si>
-    <t>59879</t>
+    <t>54954</t>
   </si>
   <si>
     <t>Rune Ra Pod</t>
   </si>
   <si>
-    <t>143700</t>
+    <t>140000</t>
   </si>
   <si>
     <t>Rune Ra Vi</t>
   </si>
   <si>
-    <t>146674</t>
+    <t>146394</t>
   </si>
   <si>
     <t>Rune Ra Sa</t>
   </si>
   <si>
-    <t>104992</t>
+    <t>104994</t>
   </si>
   <si>
     <t>Rune Ra Pui</t>
   </si>
   <si>
-    <t>315994</t>
+    <t>313972</t>
   </si>
 </sst>
 </file>

--- a/run.xlsx
+++ b/run.xlsx
@@ -19,142 +19,148 @@
     <t>Rune Age</t>
   </si>
   <si>
-    <t>7987</t>
+    <t>7598</t>
   </si>
   <si>
     <t>Rune Cha</t>
   </si>
   <si>
-    <t>9897</t>
+    <t>8999</t>
   </si>
   <si>
     <t>Rune Fo</t>
   </si>
   <si>
-    <t>3799</t>
+    <t>4000</t>
   </si>
   <si>
     <t>Rune Ine</t>
   </si>
   <si>
-    <t>4999</t>
+    <t>5767</t>
   </si>
   <si>
     <t>Rune Pod</t>
   </si>
   <si>
-    <t>11998</t>
+    <t>11845</t>
   </si>
   <si>
     <t>Rune Vi</t>
   </si>
   <si>
-    <t>14999</t>
+    <t>15933</t>
   </si>
   <si>
     <t>Rune Sa</t>
   </si>
   <si>
-    <t>13892</t>
+    <t>12993</t>
   </si>
   <si>
     <t>Rune Pui</t>
   </si>
   <si>
-    <t>30884</t>
+    <t>32497</t>
   </si>
   <si>
     <t>Rune So</t>
   </si>
   <si>
-    <t>43955</t>
+    <t>39096</t>
   </si>
   <si>
     <t>Rune Do Air</t>
   </si>
   <si>
-    <t>121696</t>
+    <t>121751</t>
   </si>
   <si>
     <t>Rune Do Eau</t>
   </si>
   <si>
-    <t>182278</t>
+    <t>139979</t>
   </si>
   <si>
     <t>Rune Do Feu</t>
   </si>
   <si>
-    <t>89493</t>
+    <t>118977</t>
   </si>
   <si>
     <t>Rune Do Terre</t>
   </si>
   <si>
-    <t>71763</t>
+    <t>71437</t>
   </si>
   <si>
     <t>Rune Pa Age</t>
   </si>
   <si>
-    <t>29733</t>
+    <t>29853</t>
   </si>
   <si>
     <t>Rune Pa Cha</t>
   </si>
   <si>
-    <t>30799</t>
+    <t>30959</t>
   </si>
   <si>
     <t>Rune Pa Fo</t>
   </si>
   <si>
-    <t>12871</t>
+    <t>12830</t>
   </si>
   <si>
     <t>Rune Pa Ine</t>
   </si>
   <si>
-    <t>19995</t>
+    <t>19997</t>
   </si>
   <si>
     <t>Rune Pa Pod</t>
   </si>
   <si>
-    <t>34498</t>
+    <t>34493</t>
   </si>
   <si>
     <t>Rune Pa Vi</t>
   </si>
   <si>
-    <t>52179</t>
+    <t>51780</t>
   </si>
   <si>
     <t>Rune Pa Sa</t>
   </si>
   <si>
-    <t>48795</t>
+    <t>47802</t>
   </si>
   <si>
     <t>Rune Pa Pui</t>
   </si>
   <si>
-    <t>117823</t>
+    <t>116999</t>
   </si>
   <si>
     <t>Rune Pa So</t>
   </si>
   <si>
-    <t>129860</t>
+    <t>170000</t>
   </si>
   <si>
     <t>Rune Pa Do Air</t>
   </si>
   <si>
-    <t>325973</t>
+    <t>373049</t>
   </si>
   <si>
     <t>Rune Pa Do Eau</t>
+  </si>
+  <si>
+    <t>569946</t>
+  </si>
+  <si>
+    <t>Rune Pa Do Feu</t>
   </si>
   <si>
     <t>I'll'-I".I.
@@ -164,64 +170,58 @@
 J‘,'A..'.:".Ei-I</t>
   </si>
   <si>
-    <t>Rune Pa Do Feu</t>
-  </si>
-  <si>
-    <t>279893</t>
-  </si>
-  <si>
     <t>Rune Pa Do Terre</t>
   </si>
   <si>
-    <t>219919</t>
+    <t>228999</t>
   </si>
   <si>
     <t>Rune Ra Age</t>
   </si>
   <si>
-    <t>83992</t>
+    <t>88995</t>
   </si>
   <si>
     <t>Rune Ra Cha</t>
   </si>
   <si>
-    <t>99590</t>
+    <t>99545</t>
   </si>
   <si>
     <t>Rune Ra Fo</t>
   </si>
   <si>
-    <t>38884</t>
+    <t>43998</t>
   </si>
   <si>
     <t>Rune Ra Ine</t>
   </si>
   <si>
-    <t>54954</t>
+    <t>59977</t>
   </si>
   <si>
     <t>Rune Ra Pod</t>
   </si>
   <si>
-    <t>140000</t>
+    <t>139000</t>
   </si>
   <si>
     <t>Rune Ra Vi</t>
   </si>
   <si>
-    <t>146394</t>
+    <t>147793</t>
   </si>
   <si>
     <t>Rune Ra Sa</t>
   </si>
   <si>
-    <t>104994</t>
+    <t>104000</t>
   </si>
   <si>
     <t>Rune Ra Pui</t>
   </si>
   <si>
-    <t>313972</t>
+    <t>312999</t>
   </si>
 </sst>
 </file>

--- a/run.xlsx
+++ b/run.xlsx
@@ -19,209 +19,205 @@
     <t>Rune Age</t>
   </si>
   <si>
-    <t>7598</t>
+    <t>9086</t>
   </si>
   <si>
     <t>Rune Cha</t>
   </si>
   <si>
-    <t>8999</t>
+    <t>8986</t>
   </si>
   <si>
     <t>Rune Fo</t>
   </si>
   <si>
-    <t>4000</t>
+    <t>3198</t>
   </si>
   <si>
     <t>Rune Ine</t>
   </si>
   <si>
-    <t>5767</t>
+    <t>4998</t>
   </si>
   <si>
     <t>Rune Pod</t>
   </si>
   <si>
-    <t>11845</t>
+    <t>7998</t>
   </si>
   <si>
     <t>Rune Vi</t>
   </si>
   <si>
-    <t>15933</t>
+    <t>15481</t>
   </si>
   <si>
     <t>Rune Sa</t>
   </si>
   <si>
-    <t>12993</t>
+    <t>12961</t>
   </si>
   <si>
     <t>Rune Pui</t>
   </si>
   <si>
-    <t>32497</t>
+    <t>29999</t>
   </si>
   <si>
     <t>Rune So</t>
   </si>
   <si>
-    <t>39096</t>
+    <t>31999</t>
   </si>
   <si>
     <t>Rune Do Air</t>
   </si>
   <si>
-    <t>121751</t>
+    <t>117900</t>
   </si>
   <si>
     <t>Rune Do Eau</t>
   </si>
   <si>
-    <t>139979</t>
+    <t>114999</t>
   </si>
   <si>
     <t>Rune Do Feu</t>
   </si>
   <si>
-    <t>118977</t>
+    <t>116974</t>
   </si>
   <si>
     <t>Rune Do Terre</t>
   </si>
   <si>
-    <t>71437</t>
+    <t>68340</t>
   </si>
   <si>
     <t>Rune Pa Age</t>
   </si>
   <si>
-    <t>29853</t>
+    <t>27677</t>
   </si>
   <si>
     <t>Rune Pa Cha</t>
   </si>
   <si>
-    <t>30959</t>
+    <t>32429</t>
   </si>
   <si>
     <t>Rune Pa Fo</t>
   </si>
   <si>
-    <t>12830</t>
+    <t>12698</t>
   </si>
   <si>
     <t>Rune Pa Ine</t>
   </si>
   <si>
-    <t>19997</t>
+    <t>19858</t>
   </si>
   <si>
     <t>Rune Pa Pod</t>
   </si>
   <si>
-    <t>34493</t>
+    <t>34498</t>
   </si>
   <si>
     <t>Rune Pa Vi</t>
   </si>
   <si>
-    <t>51780</t>
+    <t>51081</t>
   </si>
   <si>
     <t>Rune Pa Sa</t>
   </si>
   <si>
-    <t>47802</t>
+    <t>42998</t>
   </si>
   <si>
     <t>Rune Pa Pui</t>
   </si>
   <si>
-    <t>116999</t>
+    <t>109954</t>
   </si>
   <si>
     <t>Rune Pa So</t>
   </si>
   <si>
-    <t>170000</t>
+    <t>139461</t>
   </si>
   <si>
     <t>Rune Pa Do Air</t>
   </si>
   <si>
-    <t>373049</t>
+    <t>372990</t>
   </si>
   <si>
     <t>Rune Pa Do Eau</t>
   </si>
   <si>
-    <t>569946</t>
+    <t>367991</t>
   </si>
   <si>
     <t>Rune Pa Do Feu</t>
   </si>
   <si>
-    <t>I'll'-I".I.
-I‘_
-__},.41:
-._9
-J‘,'A..'.:".Ei-I</t>
+    <t>397000</t>
   </si>
   <si>
     <t>Rune Pa Do Terre</t>
   </si>
   <si>
-    <t>228999</t>
+    <t>235689</t>
   </si>
   <si>
     <t>Rune Ra Age</t>
   </si>
   <si>
-    <t>88995</t>
+    <t>88777</t>
   </si>
   <si>
     <t>Rune Ra Cha</t>
   </si>
   <si>
-    <t>99545</t>
+    <t>99524</t>
   </si>
   <si>
     <t>Rune Ra Fo</t>
   </si>
   <si>
-    <t>43998</t>
+    <t>44759</t>
   </si>
   <si>
     <t>Rune Ra Ine</t>
   </si>
   <si>
-    <t>59977</t>
+    <t>59789</t>
   </si>
   <si>
     <t>Rune Ra Pod</t>
   </si>
   <si>
-    <t>139000</t>
+    <t>138795</t>
   </si>
   <si>
     <t>Rune Ra Vi</t>
   </si>
   <si>
-    <t>147793</t>
+    <t>149590</t>
   </si>
   <si>
     <t>Rune Ra Sa</t>
   </si>
   <si>
-    <t>104000</t>
+    <t>99979</t>
   </si>
   <si>
     <t>Rune Ra Pui</t>
   </si>
   <si>
-    <t>312999</t>
+    <t>299981</t>
   </si>
 </sst>
 </file>

--- a/run.xlsx
+++ b/run.xlsx
@@ -19,205 +19,209 @@
     <t>Rune Age</t>
   </si>
   <si>
-    <t>9086</t>
+    <t>8795</t>
   </si>
   <si>
     <t>Rune Cha</t>
   </si>
   <si>
-    <t>8986</t>
+    <t>12399</t>
   </si>
   <si>
     <t>Rune Fo</t>
   </si>
   <si>
-    <t>3198</t>
+    <t>3894</t>
   </si>
   <si>
     <t>Rune Ine</t>
   </si>
   <si>
-    <t>4998</t>
+    <t>5897</t>
   </si>
   <si>
     <t>Rune Pod</t>
   </si>
   <si>
-    <t>7998</t>
+    <t>11789</t>
   </si>
   <si>
     <t>Rune Vi</t>
   </si>
   <si>
-    <t>15481</t>
+    <t>16488</t>
   </si>
   <si>
     <t>Rune Sa</t>
   </si>
   <si>
-    <t>12961</t>
+    <t>11989</t>
   </si>
   <si>
     <t>Rune Pui</t>
   </si>
   <si>
-    <t>29999</t>
+    <t>26597</t>
   </si>
   <si>
     <t>Rune So</t>
   </si>
   <si>
-    <t>31999</t>
+    <t>43933</t>
   </si>
   <si>
     <t>Rune Do Air</t>
   </si>
   <si>
-    <t>117900</t>
+    <t>107537</t>
   </si>
   <si>
     <t>Rune Do Eau</t>
   </si>
   <si>
-    <t>114999</t>
+    <t>170831</t>
   </si>
   <si>
     <t>Rune Do Feu</t>
   </si>
   <si>
-    <t>116974</t>
+    <t>112492</t>
   </si>
   <si>
     <t>Rune Do Terre</t>
   </si>
   <si>
-    <t>68340</t>
+    <t>68362</t>
   </si>
   <si>
     <t>Rune Pa Age</t>
   </si>
   <si>
-    <t>27677</t>
+    <t>31422</t>
   </si>
   <si>
     <t>Rune Pa Cha</t>
   </si>
   <si>
-    <t>32429</t>
+    <t>47955</t>
   </si>
   <si>
     <t>Rune Pa Fo</t>
   </si>
   <si>
-    <t>12698</t>
+    <t>13994</t>
   </si>
   <si>
     <t>Rune Pa Ine</t>
   </si>
   <si>
-    <t>19858</t>
+    <t>19876</t>
   </si>
   <si>
     <t>Rune Pa Pod</t>
   </si>
   <si>
-    <t>34498</t>
+    <t>34490</t>
   </si>
   <si>
     <t>Rune Pa Vi</t>
   </si>
   <si>
-    <t>51081</t>
+    <t>52109</t>
   </si>
   <si>
     <t>Rune Pa Sa</t>
   </si>
   <si>
-    <t>42998</t>
+    <t>41932</t>
   </si>
   <si>
     <t>Rune Pa Pui</t>
   </si>
   <si>
-    <t>109954</t>
+    <t>99395</t>
   </si>
   <si>
     <t>Rune Pa So</t>
   </si>
   <si>
-    <t>139461</t>
+    <t>I'll'-I".I.
+I‘_
+__},.41:
+._9
+J‘,'A..'.:".Ei-I</t>
   </si>
   <si>
     <t>Rune Pa Do Air</t>
   </si>
   <si>
-    <t>372990</t>
+    <t>372437</t>
   </si>
   <si>
     <t>Rune Pa Do Eau</t>
   </si>
   <si>
-    <t>367991</t>
+    <t>449980</t>
   </si>
   <si>
     <t>Rune Pa Do Feu</t>
   </si>
   <si>
-    <t>397000</t>
+    <t>368800</t>
   </si>
   <si>
     <t>Rune Pa Do Terre</t>
   </si>
   <si>
-    <t>235689</t>
+    <t>235283</t>
   </si>
   <si>
     <t>Rune Ra Age</t>
   </si>
   <si>
-    <t>88777</t>
+    <t>88723</t>
   </si>
   <si>
     <t>Rune Ra Cha</t>
   </si>
   <si>
-    <t>99524</t>
+    <t>119998</t>
   </si>
   <si>
     <t>Rune Ra Fo</t>
   </si>
   <si>
-    <t>44759</t>
+    <t>43992</t>
   </si>
   <si>
     <t>Rune Ra Ine</t>
   </si>
   <si>
-    <t>59789</t>
+    <t>62999</t>
   </si>
   <si>
     <t>Rune Ra Pod</t>
   </si>
   <si>
-    <t>138795</t>
+    <t>138680</t>
   </si>
   <si>
     <t>Rune Ra Vi</t>
   </si>
   <si>
-    <t>149590</t>
+    <t>162818</t>
   </si>
   <si>
     <t>Rune Ra Sa</t>
   </si>
   <si>
-    <t>99979</t>
+    <t>104986</t>
   </si>
   <si>
     <t>Rune Ra Pui</t>
   </si>
   <si>
-    <t>299981</t>
+    <t>279979</t>
   </si>
 </sst>
 </file>

--- a/run.xlsx
+++ b/run.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -19,216 +19,212 @@
     <t>Rune Age</t>
   </si>
   <si>
-    <t>8795</t>
+    <t>8980</t>
   </si>
   <si>
     <t>Rune Cha</t>
   </si>
   <si>
-    <t>12399</t>
+    <t>13688</t>
   </si>
   <si>
     <t>Rune Fo</t>
   </si>
   <si>
-    <t>3894</t>
+    <t>4399</t>
   </si>
   <si>
     <t>Rune Ine</t>
   </si>
   <si>
-    <t>5897</t>
+    <t>5994</t>
   </si>
   <si>
     <t>Rune Pod</t>
   </si>
   <si>
-    <t>11789</t>
+    <t>10000</t>
   </si>
   <si>
     <t>Rune Vi</t>
   </si>
   <si>
-    <t>16488</t>
+    <t>18493</t>
   </si>
   <si>
     <t>Rune Sa</t>
   </si>
   <si>
-    <t>11989</t>
+    <t>11993</t>
   </si>
   <si>
     <t>Rune Pui</t>
   </si>
   <si>
-    <t>26597</t>
+    <t>26995</t>
   </si>
   <si>
     <t>Rune So</t>
   </si>
   <si>
-    <t>43933</t>
+    <t>43986</t>
   </si>
   <si>
     <t>Rune Do Air</t>
   </si>
   <si>
-    <t>107537</t>
+    <t>99794</t>
   </si>
   <si>
     <t>Rune Do Eau</t>
   </si>
   <si>
-    <t>170831</t>
+    <t>99890</t>
   </si>
   <si>
     <t>Rune Do Feu</t>
   </si>
   <si>
-    <t>112492</t>
+    <t>107994</t>
   </si>
   <si>
     <t>Rune Do Terre</t>
   </si>
   <si>
-    <t>68362</t>
+    <t>94791</t>
   </si>
   <si>
     <t>Rune Pa Age</t>
   </si>
   <si>
-    <t>31422</t>
+    <t>32875</t>
   </si>
   <si>
     <t>Rune Pa Cha</t>
   </si>
   <si>
-    <t>47955</t>
+    <t>44849</t>
   </si>
   <si>
     <t>Rune Pa Fo</t>
   </si>
   <si>
-    <t>13994</t>
+    <t>16697</t>
   </si>
   <si>
     <t>Rune Pa Ine</t>
   </si>
   <si>
-    <t>19876</t>
+    <t>19863</t>
   </si>
   <si>
     <t>Rune Pa Pod</t>
   </si>
   <si>
-    <t>34490</t>
+    <t>44995</t>
   </si>
   <si>
     <t>Rune Pa Vi</t>
   </si>
   <si>
-    <t>52109</t>
+    <t>54500</t>
   </si>
   <si>
     <t>Rune Pa Sa</t>
   </si>
   <si>
-    <t>41932</t>
+    <t>40989</t>
   </si>
   <si>
     <t>Rune Pa Pui</t>
   </si>
   <si>
-    <t>99395</t>
+    <t>94984</t>
   </si>
   <si>
     <t>Rune Pa So</t>
   </si>
   <si>
-    <t>I'll'-I".I.
-I‘_
-__},.41:
-._9
-J‘,'A..'.:".Ei-I</t>
+    <t>247982</t>
   </si>
   <si>
     <t>Rune Pa Do Air</t>
   </si>
   <si>
-    <t>372437</t>
+    <t>293981</t>
   </si>
   <si>
     <t>Rune Pa Do Eau</t>
   </si>
   <si>
-    <t>449980</t>
+    <t>384993</t>
   </si>
   <si>
     <t>Rune Pa Do Feu</t>
   </si>
   <si>
-    <t>368800</t>
+    <t>299993</t>
   </si>
   <si>
     <t>Rune Pa Do Terre</t>
   </si>
   <si>
-    <t>235283</t>
+    <t>220000</t>
   </si>
   <si>
     <t>Rune Ra Age</t>
   </si>
   <si>
-    <t>88723</t>
+    <t>89988</t>
   </si>
   <si>
     <t>Rune Ra Cha</t>
   </si>
   <si>
-    <t>119998</t>
+    <t>149994</t>
   </si>
   <si>
     <t>Rune Ra Fo</t>
   </si>
   <si>
-    <t>43992</t>
+    <t>44596</t>
   </si>
   <si>
     <t>Rune Ra Ine</t>
   </si>
   <si>
-    <t>62999</t>
+    <t>69899</t>
   </si>
   <si>
     <t>Rune Ra Pod</t>
   </si>
   <si>
-    <t>138680</t>
+    <t>136899</t>
   </si>
   <si>
     <t>Rune Ra Vi</t>
   </si>
   <si>
-    <t>162818</t>
+    <t>169111</t>
   </si>
   <si>
     <t>Rune Ra Sa</t>
   </si>
   <si>
-    <t>104986</t>
+    <t>103995</t>
   </si>
   <si>
     <t>Rune Ra Pui</t>
   </si>
   <si>
-    <t>279979</t>
+    <t>279991</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +261,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1566,7 +1567,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1640,6 +1641,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1674,6 +1676,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1849,355 +1852,356 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="110" customHeight="1">
+    <row r="1" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="110" customHeight="1">
+    <row r="3" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="110" customHeight="1">
+    <row r="5" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="110" customHeight="1">
+    <row r="7" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="110" customHeight="1">
+    <row r="9" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="110" customHeight="1">
+    <row r="11" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="110" customHeight="1">
+    <row r="13" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="110" customHeight="1">
+    <row r="15" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="110" customHeight="1">
+    <row r="17" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="110" customHeight="1">
+    <row r="19" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="110" customHeight="1">
+    <row r="21" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="110" customHeight="1">
+    <row r="23" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="110" customHeight="1">
+    <row r="25" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="110" customHeight="1">
+    <row r="27" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="110" customHeight="1">
+    <row r="29" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="110" customHeight="1">
+    <row r="31" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="110" customHeight="1">
+    <row r="33" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="110" customHeight="1">
+    <row r="35" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="110" customHeight="1">
+    <row r="37" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="110" customHeight="1">
+    <row r="39" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="110" customHeight="1">
+    <row r="41" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="110" customHeight="1">
+    <row r="43" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="110" customHeight="1">
+    <row r="45" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="110" customHeight="1">
+    <row r="47" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="110" customHeight="1">
+    <row r="49" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="110" customHeight="1">
+    <row r="51" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="110" customHeight="1">
+    <row r="53" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="110" customHeight="1">
+    <row r="55" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="110" customHeight="1">
+    <row r="57" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="110" customHeight="1">
+    <row r="59" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="110" customHeight="1">
+    <row r="61" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="110" customHeight="1">
+    <row r="63" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="110" customHeight="1">
+    <row r="65" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="110" customHeight="1">
+    <row r="67" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>67</v>
       </c>

--- a/run.xlsx
+++ b/run.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -19,212 +19,212 @@
     <t>Rune Age</t>
   </si>
   <si>
-    <t>8980</t>
+    <t>7994</t>
   </si>
   <si>
     <t>Rune Cha</t>
   </si>
   <si>
-    <t>13688</t>
+    <t>11799</t>
   </si>
   <si>
     <t>Rune Fo</t>
   </si>
   <si>
-    <t>4399</t>
+    <t>3800</t>
   </si>
   <si>
     <t>Rune Ine</t>
   </si>
   <si>
-    <t>5994</t>
+    <t>6479</t>
   </si>
   <si>
     <t>Rune Pod</t>
   </si>
   <si>
-    <t>10000</t>
+    <t>11500</t>
   </si>
   <si>
     <t>Rune Vi</t>
   </si>
   <si>
-    <t>18493</t>
+    <t>16499</t>
   </si>
   <si>
     <t>Rune Sa</t>
   </si>
   <si>
-    <t>11993</t>
+    <t>7997</t>
   </si>
   <si>
     <t>Rune Pui</t>
   </si>
   <si>
-    <t>26995</t>
+    <t>18849</t>
   </si>
   <si>
     <t>Rune So</t>
   </si>
   <si>
-    <t>43986</t>
+    <t>39783</t>
   </si>
   <si>
     <t>Rune Do Air</t>
   </si>
   <si>
-    <t>99794</t>
+    <t>91105</t>
   </si>
   <si>
     <t>Rune Do Eau</t>
   </si>
   <si>
-    <t>99890</t>
+    <t>103893</t>
   </si>
   <si>
     <t>Rune Do Feu</t>
   </si>
   <si>
-    <t>107994</t>
+    <t>94195</t>
   </si>
   <si>
     <t>Rune Do Terre</t>
   </si>
   <si>
-    <t>94791</t>
+    <t>54994</t>
   </si>
   <si>
     <t>Rune Pa Age</t>
   </si>
   <si>
-    <t>32875</t>
+    <t>27968</t>
   </si>
   <si>
     <t>Rune Pa Cha</t>
   </si>
   <si>
-    <t>44849</t>
+    <t>36983</t>
   </si>
   <si>
     <t>Rune Pa Fo</t>
   </si>
   <si>
-    <t>16697</t>
+    <t>10444</t>
   </si>
   <si>
     <t>Rune Pa Ine</t>
   </si>
   <si>
-    <t>19863</t>
+    <t>19969</t>
   </si>
   <si>
     <t>Rune Pa Pod</t>
   </si>
   <si>
-    <t>44995</t>
+    <t>39900</t>
   </si>
   <si>
     <t>Rune Pa Vi</t>
   </si>
   <si>
-    <t>54500</t>
+    <t>55899</t>
   </si>
   <si>
     <t>Rune Pa Sa</t>
   </si>
   <si>
-    <t>40989</t>
+    <t>29102</t>
   </si>
   <si>
     <t>Rune Pa Pui</t>
   </si>
   <si>
-    <t>94984</t>
+    <t>64997</t>
   </si>
   <si>
     <t>Rune Pa So</t>
   </si>
   <si>
-    <t>247982</t>
+    <t>129769</t>
   </si>
   <si>
     <t>Rune Pa Do Air</t>
   </si>
   <si>
-    <t>293981</t>
+    <t>273996</t>
   </si>
   <si>
     <t>Rune Pa Do Eau</t>
   </si>
   <si>
-    <t>384993</t>
+    <t>349964</t>
   </si>
   <si>
     <t>Rune Pa Do Feu</t>
   </si>
   <si>
-    <t>299993</t>
+    <t>274996</t>
   </si>
   <si>
     <t>Rune Pa Do Terre</t>
   </si>
   <si>
-    <t>220000</t>
+    <t>207977</t>
   </si>
   <si>
     <t>Rune Ra Age</t>
   </si>
   <si>
-    <t>89988</t>
+    <t>78981</t>
   </si>
   <si>
     <t>Rune Ra Cha</t>
   </si>
   <si>
-    <t>149994</t>
+    <t>123985</t>
   </si>
   <si>
     <t>Rune Ra Fo</t>
   </si>
   <si>
-    <t>44596</t>
+    <t>29550</t>
   </si>
   <si>
     <t>Rune Ra Ine</t>
   </si>
   <si>
-    <t>69899</t>
+    <t>69787</t>
   </si>
   <si>
     <t>Rune Ra Pod</t>
   </si>
   <si>
-    <t>136899</t>
+    <t>132790</t>
   </si>
   <si>
     <t>Rune Ra Vi</t>
   </si>
   <si>
-    <t>169111</t>
+    <t>166553</t>
   </si>
   <si>
     <t>Rune Ra Sa</t>
   </si>
   <si>
-    <t>103995</t>
+    <t>72540</t>
   </si>
   <si>
     <t>Rune Ra Pui</t>
   </si>
   <si>
-    <t>279991</t>
+    <t>199977</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,11 +261,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1567,7 +1562,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1641,7 +1636,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1676,7 +1670,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1852,356 +1845,355 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="110" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="110" customHeight="1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="110" customHeight="1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="110" customHeight="1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="110" customHeight="1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="110" customHeight="1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="110" customHeight="1">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="110" customHeight="1">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="110" customHeight="1">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="110" customHeight="1">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="110" customHeight="1">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="110" customHeight="1">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="110" customHeight="1">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="B26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="110" customHeight="1">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="B28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="110" customHeight="1">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="110" customHeight="1">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="110" customHeight="1">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="110" customHeight="1">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="B36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="110" customHeight="1">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="110" customHeight="1">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="B40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="110" customHeight="1">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="110" customHeight="1">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="B44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="110" customHeight="1">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="B46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="110" customHeight="1">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="B48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="110" customHeight="1">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="B50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="110" customHeight="1">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="B52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="110" customHeight="1">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="B54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="110" customHeight="1">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="B56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="110" customHeight="1">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="B58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="110" customHeight="1">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="B60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="110" customHeight="1">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="B62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="110" customHeight="1">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="B64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="110" customHeight="1">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="B66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="110" customHeight="1">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="B68" t="s">
         <v>67</v>
       </c>
